--- a/tools_n_data/MoonRiver-again.xlsx
+++ b/tools_n_data/MoonRiver-again.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="119">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">#comment</t>
   </si>
   <si>
-    <t xml:space="preserve">티파니에서 아침을 OST</t>
+    <t xml:space="preserve">출처: 우쿨렐레 콘서트 연주곡집 – 티파니에서 아침을 OST</t>
   </si>
   <si>
     <t xml:space="preserve">#start_offset</t>
@@ -214,6 +214,12 @@
     <t xml:space="preserve">5c</t>
   </si>
   <si>
+    <t xml:space="preserve">3m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2m</t>
+  </si>
+  <si>
     <t xml:space="preserve">#E</t>
   </si>
   <si>
@@ -232,7 +238,7 @@
     <t xml:space="preserve">#G</t>
   </si>
   <si>
-    <t xml:space="preserve">2a</t>
+    <t xml:space="preserve">2i</t>
   </si>
   <si>
     <r>
@@ -303,25 +309,13 @@
     <t xml:space="preserve">Bb</t>
   </si>
   <si>
-    <t xml:space="preserve">3i</t>
+    <t xml:space="preserve">3c</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">2im</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">3i</t>
   </si>
   <si>
     <t xml:space="preserve">day</t>
@@ -369,7 +363,13 @@
     <t xml:space="preserve">G7</t>
   </si>
   <si>
+    <t xml:space="preserve">4c</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a</t>
   </si>
   <si>
     <t xml:space="preserve">you’re</t>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">2mm</t>
   </si>
   <si>
     <t xml:space="preserve">af-</t>
@@ -453,7 +453,7 @@
     <t xml:space="preserve">Dm</t>
   </si>
   <si>
-    <t xml:space="preserve">3 </t>
+    <t xml:space="preserve">3a </t>
   </si>
   <si>
     <t xml:space="preserve">bend</t>
@@ -491,7 +491,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -573,11 +573,6 @@
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -682,7 +677,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,10 +786,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -875,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ475"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z35" activeCellId="0" sqref="Z35:AN40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z48" activeCellId="0" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1401,14 +1392,14 @@
         <v>34</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="22" t="n">
-        <v>3</v>
+      <c r="J20" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="18" t="n">
-        <v>2</v>
+      <c r="N20" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="22"/>
@@ -1423,8 +1414,8 @@
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
-      <c r="Z20" s="18" t="n">
-        <v>2</v>
+      <c r="Z20" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="22"/>
@@ -1445,10 +1436,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="20" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -1463,40 +1454,40 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="18" t="n">
-        <v>1</v>
+      <c r="N21" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="18" t="n">
-        <v>1</v>
+      <c r="Z21" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE21" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF21" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
@@ -1509,7 +1500,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="20" t="n">
         <v>0</v>
@@ -1526,7 +1517,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="18" t="n">
@@ -1534,7 +1525,7 @@
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -1554,7 +1545,7 @@
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21"/>
@@ -1575,7 +1566,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="20" t="n">
         <v>0</v>
@@ -1586,7 +1577,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -1594,7 +1585,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -1610,7 +1601,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
@@ -1631,10 +1622,10 @@
     </row>
     <row r="24" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1642,7 +1633,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -1650,13 +1641,13 @@
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
@@ -1664,27 +1655,27 @@
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA24" s="23"/>
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
       <c r="AD24" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="AH24" s="23"/>
       <c r="AI24" s="23"/>
       <c r="AJ24" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AK24" s="23"/>
       <c r="AL24" s="8" t="s">
@@ -1694,7 +1685,7 @@
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="24"/>
@@ -1739,7 +1730,7 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="24"/>
@@ -1787,7 +1778,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -1795,7 +1786,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -1811,7 +1802,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -1819,7 +1810,7 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
@@ -1827,7 +1818,7 @@
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
@@ -1899,11 +1890,11 @@
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
       <c r="H28" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
@@ -1938,20 +1929,20 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -1965,11 +1956,11 @@
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
@@ -1981,11 +1972,11 @@
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG29" s="21"/>
       <c r="AH29" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
@@ -1996,7 +1987,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>62</v>
@@ -2007,17 +1998,17 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
@@ -2025,17 +2016,17 @@
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
@@ -2043,14 +2034,14 @@
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="20" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="AG30" s="21"/>
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AL30" s="8" t="s">
         <v>32</v>
@@ -2058,10 +2049,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -2069,7 +2060,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -2077,7 +2068,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="20" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
@@ -2085,7 +2076,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="20" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
@@ -2093,7 +2084,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
@@ -2101,7 +2092,7 @@
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
       <c r="AF31" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG31" s="21"/>
       <c r="AH31" s="21"/>
@@ -2114,10 +2105,10 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -2129,11 +2120,11 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M32" s="23"/>
       <c r="N32" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
@@ -2141,17 +2132,17 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z32" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA32" s="23"/>
       <c r="AB32" s="23"/>
@@ -2159,14 +2150,14 @@
       <c r="AD32" s="23"/>
       <c r="AE32" s="23"/>
       <c r="AF32" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AL32" s="8" t="s">
         <v>32</v>
@@ -2175,7 +2166,7 @@
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="24"/>
@@ -2220,7 +2211,7 @@
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="24"/>
@@ -2276,35 +2267,35 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
       <c r="X35" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y35" s="19"/>
       <c r="Z35" s="18"/>
@@ -2388,35 +2379,35 @@
       <c r="F36" s="22"/>
       <c r="G36" s="21"/>
       <c r="H36" s="18" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O36" s="21"/>
       <c r="P36" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="22"/>
       <c r="S36" s="21"/>
       <c r="T36" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
       <c r="X36" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="Y36" s="21"/>
       <c r="Z36" s="18"/>
@@ -2431,8 +2422,8 @@
         <v>34</v>
       </c>
       <c r="AI36" s="21"/>
-      <c r="AJ36" s="22" t="n">
-        <v>3</v>
+      <c r="AJ36" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
@@ -2443,52 +2434,52 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="20" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S37" s="21"/>
       <c r="T37" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
       <c r="X37" s="21" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="Y37" s="21"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="21"/>
-      <c r="AB37" s="20" t="n">
-        <v>3</v>
+      <c r="AB37" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
@@ -2509,10 +2500,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -2520,33 +2511,33 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="26" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S38" s="21"/>
       <c r="T38" s="20" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="Y38" s="21"/>
       <c r="Z38" s="20"/>
@@ -2566,7 +2557,7 @@
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
       <c r="AL38" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM38" s="21"/>
       <c r="AN38" s="8" t="s">
@@ -2575,10 +2566,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -2586,33 +2577,33 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
       <c r="N39" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S39" s="21"/>
       <c r="T39" s="20" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
       <c r="X39" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y39" s="21"/>
       <c r="Z39" s="20"/>
@@ -2626,7 +2617,7 @@
       <c r="AF39" s="21"/>
       <c r="AG39" s="21"/>
       <c r="AH39" s="20" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AI39" s="21"/>
       <c r="AJ39" s="21"/>
@@ -2639,7 +2630,7 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2657,7 +2648,7 @@
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>83</v>
@@ -2700,7 +2691,7 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="24"/>
@@ -2745,7 +2736,7 @@
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="24"/>
@@ -2825,7 +2816,7 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA43" s="19"/>
       <c r="AB43" s="19"/>
@@ -2833,7 +2824,7 @@
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
@@ -2898,8 +2889,8 @@
       <c r="A44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="18" t="n">
-        <v>2</v>
+      <c r="B44" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -2915,12 +2906,12 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
       <c r="N44" s="18" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
@@ -2937,7 +2928,7 @@
       <c r="AD44" s="22"/>
       <c r="AE44" s="21"/>
       <c r="AF44" s="18" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AG44" s="21"/>
       <c r="AH44" s="21"/>
@@ -2950,22 +2941,22 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="18" t="n">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -2973,19 +2964,19 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
@@ -2995,19 +2986,19 @@
       <c r="Z45" s="20"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AE45" s="21"/>
       <c r="AF45" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG45" s="21"/>
       <c r="AH45" s="21" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AI45" s="21"/>
       <c r="AJ45" s="21"/>
@@ -3018,14 +3009,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -3041,27 +3032,27 @@
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O46" s="21"/>
       <c r="P46" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
       <c r="X46" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y46" s="21"/>
       <c r="Z46" s="20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
@@ -3069,13 +3060,13 @@
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
       <c r="AF46" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AG46" s="21"/>
       <c r="AH46" s="21"/>
       <c r="AI46" s="21"/>
       <c r="AJ46" s="22" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AK46" s="21"/>
       <c r="AL46" s="8" t="s">
@@ -3084,10 +3075,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -3103,7 +3094,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
       <c r="N47" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -3111,7 +3102,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
       <c r="T47" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
@@ -3119,7 +3110,7 @@
       <c r="X47" s="21"/>
       <c r="Y47" s="21"/>
       <c r="Z47" s="20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
@@ -3127,7 +3118,7 @@
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
       <c r="AF47" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AG47" s="21"/>
       <c r="AH47" s="21"/>
@@ -3140,7 +3131,7 @@
     </row>
     <row r="48" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>87</v>
@@ -3205,7 +3196,7 @@
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="24"/>
@@ -3250,7 +3241,7 @@
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="24"/>
@@ -3416,7 +3407,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="21"/>
       <c r="N52" s="18" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="O52" s="21"/>
       <c r="P52" s="22"/>
@@ -3424,13 +3415,13 @@
       <c r="R52" s="22"/>
       <c r="S52" s="21"/>
       <c r="T52" s="18" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
       <c r="X52" s="21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="Y52" s="21"/>
       <c r="Z52" s="18"/>
@@ -3440,14 +3431,14 @@
       <c r="AD52" s="22"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG52" s="21"/>
       <c r="AH52" s="21" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AI52" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AJ52" s="21"/>
       <c r="AK52" s="21"/>
@@ -3457,7 +3448,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
@@ -3466,17 +3457,17 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
@@ -3484,7 +3475,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="21"/>
       <c r="T53" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
@@ -3492,7 +3483,7 @@
       <c r="X53" s="21"/>
       <c r="Y53" s="21"/>
       <c r="Z53" s="20" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
@@ -3500,16 +3491,16 @@
       <c r="AD53" s="22"/>
       <c r="AE53" s="21"/>
       <c r="AF53" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AG53" s="21"/>
       <c r="AH53" s="21"/>
       <c r="AI53" s="21"/>
       <c r="AJ53" s="21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AK53" s="21" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AL53" s="8" t="s">
         <v>32</v>
@@ -3517,10 +3508,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -3528,7 +3519,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
@@ -3536,7 +3527,7 @@
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="20" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
@@ -3544,7 +3535,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="21"/>
       <c r="T54" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
@@ -3552,7 +3543,7 @@
       <c r="X54" s="22"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
@@ -3560,7 +3551,7 @@
       <c r="AD54" s="22"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG54" s="21"/>
       <c r="AH54" s="21"/>
@@ -3573,10 +3564,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -3584,7 +3575,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -3592,7 +3583,7 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
@@ -3606,7 +3597,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
@@ -3614,7 +3605,7 @@
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="20" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG55" s="21"/>
       <c r="AH55" s="21"/>
@@ -3627,7 +3618,7 @@
     </row>
     <row r="56" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>100</v>
@@ -3688,7 +3679,7 @@
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="24"/>
@@ -3733,7 +3724,7 @@
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="24"/>
@@ -3789,7 +3780,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
@@ -3821,7 +3812,7 @@
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
@@ -3893,14 +3884,14 @@
       <c r="F60" s="22"/>
       <c r="G60" s="21"/>
       <c r="H60" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L60" s="22"/>
       <c r="M60" s="21"/>
@@ -3934,7 +3925,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>109</v>
@@ -3945,19 +3936,19 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
@@ -3971,7 +3962,7 @@
       <c r="X61" s="21"/>
       <c r="Y61" s="21"/>
       <c r="Z61" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
@@ -3979,13 +3970,13 @@
       <c r="AD61" s="22"/>
       <c r="AE61" s="21"/>
       <c r="AF61" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AG61" s="21"/>
       <c r="AH61" s="21"/>
       <c r="AI61" s="21"/>
       <c r="AJ61" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK61" s="21"/>
       <c r="AL61" s="8" t="s">
@@ -3994,10 +3985,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -4005,17 +3996,17 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
@@ -4023,7 +4014,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="21"/>
       <c r="T62" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
@@ -4031,17 +4022,17 @@
       <c r="X62" s="22"/>
       <c r="Y62" s="21"/>
       <c r="Z62" s="20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AC62" s="21"/>
       <c r="AD62" s="22"/>
       <c r="AE62" s="21"/>
       <c r="AF62" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AG62" s="21"/>
       <c r="AH62" s="21"/>
@@ -4054,10 +4045,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
@@ -4065,7 +4056,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="20" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
@@ -4073,7 +4064,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
       <c r="N63" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
@@ -4081,7 +4072,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="21"/>
       <c r="T63" s="20" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
@@ -4089,7 +4080,7 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="21"/>
       <c r="Z63" s="20" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
@@ -4097,7 +4088,7 @@
       <c r="AD63" s="21"/>
       <c r="AE63" s="21"/>
       <c r="AF63" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG63" s="21"/>
       <c r="AH63" s="21"/>
@@ -4110,7 +4101,7 @@
     </row>
     <row r="64" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>110</v>
@@ -4140,7 +4131,7 @@
         <v>113</v>
       </c>
       <c r="U64" s="23"/>
-      <c r="V64" s="27"/>
+      <c r="V64" s="23"/>
       <c r="W64" s="23"/>
       <c r="X64" s="23"/>
       <c r="Y64" s="23"/>
@@ -4169,7 +4160,7 @@
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="24"/>
@@ -4214,7 +4205,7 @@
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="24"/>
@@ -4294,7 +4285,7 @@
       <c r="X67" s="19"/>
       <c r="Y67" s="19"/>
       <c r="Z67" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA67" s="19"/>
       <c r="AB67" s="19"/>
@@ -4378,7 +4369,7 @@
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="21" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
@@ -4390,17 +4381,17 @@
       <c r="R68" s="22"/>
       <c r="S68" s="21"/>
       <c r="T68" s="18" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="U68" s="21"/>
       <c r="V68" s="21" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="W68" s="21"/>
       <c r="X68" s="21"/>
       <c r="Y68" s="21"/>
       <c r="Z68" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA68" s="21"/>
       <c r="AB68" s="22"/>
@@ -4408,7 +4399,7 @@
       <c r="AD68" s="22"/>
       <c r="AE68" s="21"/>
       <c r="AF68" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG68" s="21"/>
       <c r="AH68" s="21"/>
@@ -4421,7 +4412,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>109</v>
@@ -4432,17 +4423,17 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="20" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
@@ -4450,7 +4441,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="21"/>
       <c r="T69" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
@@ -4458,19 +4449,19 @@
       <c r="X69" s="21"/>
       <c r="Y69" s="21"/>
       <c r="Z69" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AA69" s="21"/>
       <c r="AB69" s="21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AC69" s="21"/>
       <c r="AD69" s="26" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AE69" s="21"/>
       <c r="AF69" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG69" s="21"/>
       <c r="AH69" s="21"/>
@@ -4483,10 +4474,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -4494,7 +4485,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
       <c r="H70" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
@@ -4502,7 +4493,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
       <c r="N70" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
@@ -4510,7 +4501,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="21"/>
       <c r="T70" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U70" s="21"/>
       <c r="V70" s="21"/>
@@ -4518,19 +4509,19 @@
       <c r="X70" s="22"/>
       <c r="Y70" s="21"/>
       <c r="Z70" s="20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC70" s="21"/>
       <c r="AD70" s="26" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AE70" s="21"/>
       <c r="AF70" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG70" s="21"/>
       <c r="AH70" s="21"/>
@@ -4543,7 +4534,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
@@ -4552,7 +4543,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
@@ -4566,7 +4557,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="21"/>
       <c r="T71" s="20" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
@@ -4580,7 +4571,7 @@
       <c r="AD71" s="21"/>
       <c r="AE71" s="21"/>
       <c r="AF71" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG71" s="21"/>
       <c r="AH71" s="21"/>
@@ -4593,7 +4584,7 @@
     </row>
     <row r="72" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>118</v>
@@ -4640,7 +4631,7 @@
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="24"/>
@@ -4685,7 +4676,7 @@
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="24"/>

--- a/tools_n_data/MoonRiver-again.xlsx
+++ b/tools_n_data/MoonRiver-again.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="119">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -294,6 +294,9 @@
     <t xml:space="preserve">#technic</t>
   </si>
   <si>
+    <t xml:space="preserve">|</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bm7</t>
   </si>
   <si>
@@ -451,9 +454,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3a </t>
   </si>
   <si>
     <t xml:space="preserve">bend</t>
@@ -788,13 +788,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -860,33 +860,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ475"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z48" activeCellId="0" sqref="Z48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="27" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="33" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="38" style="1" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="88" style="0" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="87" min="38" style="1" width="3.14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,37 +1725,49 @@
       <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="20"/>
+      <c r="H26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="20"/>
+      <c r="N26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="20"/>
+      <c r="T26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
-      <c r="Z26" s="20"/>
+      <c r="Z26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="24"/>
-      <c r="AF26" s="20"/>
+      <c r="AF26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG26" s="24"/>
       <c r="AH26" s="24"/>
       <c r="AI26" s="24"/>
@@ -1778,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -1786,7 +1791,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -1802,7 +1807,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -1810,7 +1815,7 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
@@ -1818,7 +1823,7 @@
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
@@ -1890,7 +1895,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
       <c r="H28" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21" t="s">
@@ -1990,7 +1995,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -2076,7 +2081,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
@@ -2103,12 +2108,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -2120,11 +2125,11 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M32" s="23"/>
       <c r="N32" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
@@ -2132,17 +2137,17 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z32" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA32" s="23"/>
       <c r="AB32" s="23"/>
@@ -2150,14 +2155,14 @@
       <c r="AD32" s="23"/>
       <c r="AE32" s="23"/>
       <c r="AF32" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL32" s="8" t="s">
         <v>32</v>
@@ -2213,37 +2218,49 @@
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="20"/>
+      <c r="H34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
-      <c r="N34" s="20"/>
+      <c r="N34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
-      <c r="T34" s="20"/>
+      <c r="T34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U34" s="24"/>
       <c r="V34" s="24"/>
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
       <c r="Y34" s="24"/>
-      <c r="Z34" s="20"/>
+      <c r="Z34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA34" s="24"/>
       <c r="AB34" s="24"/>
       <c r="AC34" s="24"/>
       <c r="AD34" s="24"/>
       <c r="AE34" s="24"/>
-      <c r="AF34" s="20"/>
+      <c r="AF34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
       <c r="AI34" s="24"/>
@@ -2267,62 +2284,62 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
-      <c r="X35" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
-      <c r="Z35" s="18"/>
+      <c r="Z35" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="AA35" s="19"/>
-      <c r="AB35" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AB35" s="25"/>
       <c r="AC35" s="19"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
+      <c r="AF35" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AG35" s="19"/>
-      <c r="AH35" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
       <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
+      <c r="AL35" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="AM35" s="19"/>
-      <c r="AN35" s="8" t="s">
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
@@ -2406,29 +2423,33 @@
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
-      <c r="X36" s="21" t="s">
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="18"/>
       <c r="AA36" s="21"/>
-      <c r="AB36" s="18"/>
+      <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
-      <c r="AD36" s="22"/>
+      <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
+      <c r="AF36" s="18"/>
       <c r="AG36" s="21"/>
-      <c r="AH36" s="18" t="s">
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="22" t="s">
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="8" t="s">
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2472,29 +2493,33 @@
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
-      <c r="X37" s="21" t="s">
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="20"/>
       <c r="AA37" s="21"/>
-      <c r="AB37" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
+      <c r="AF37" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AG37" s="21"/>
-      <c r="AH37" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH37" s="21"/>
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
+      <c r="AL37" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="AM37" s="21"/>
-      <c r="AN37" s="8" t="s">
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2511,7 +2536,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
@@ -2521,7 +2546,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
@@ -2536,31 +2561,35 @@
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
-      <c r="X38" s="22" t="s">
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="20"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
+      <c r="AF38" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="AG38" s="21"/>
-      <c r="AH38" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH38" s="21"/>
       <c r="AI38" s="21"/>
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
-      <c r="AL38" s="21" t="s">
+      <c r="AL38" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="8" t="s">
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2602,33 +2631,37 @@
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
-      <c r="X39" s="21" t="s">
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="20"/>
       <c r="AA39" s="21"/>
-      <c r="AB39" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
+      <c r="AF39" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="AG39" s="21"/>
-      <c r="AH39" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="AH39" s="21"/>
       <c r="AI39" s="21"/>
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
+      <c r="AL39" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="AM39" s="21"/>
-      <c r="AN39" s="8" t="s">
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
@@ -2637,11 +2670,11 @@
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
@@ -2651,14 +2684,14 @@
         <v>49</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T40" s="23"/>
       <c r="U40" s="23"/>
@@ -2668,23 +2701,27 @@
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
       <c r="AA40" s="23"/>
-      <c r="AB40" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
+      <c r="AF40" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="AG40" s="23"/>
-      <c r="AH40" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="AH40" s="23"/>
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
+      <c r="AL40" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="AM40" s="23"/>
-      <c r="AN40" s="8" t="s">
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AMJ40" s="0"/>
@@ -2729,7 +2766,8 @@
       <c r="AI41" s="24"/>
       <c r="AJ41" s="24"/>
       <c r="AK41" s="24"/>
-      <c r="AL41" s="8" t="s">
+      <c r="AL41" s="8"/>
+      <c r="AR41" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AMJ41" s="0"/>
@@ -2738,43 +2776,58 @@
       <c r="A42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
-      <c r="H42" s="20"/>
+      <c r="H42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="20"/>
+      <c r="N42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
-      <c r="T42" s="20"/>
+      <c r="T42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U42" s="24"/>
       <c r="V42" s="24"/>
       <c r="W42" s="24"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="24"/>
-      <c r="Z42" s="20"/>
+      <c r="Z42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA42" s="24"/>
       <c r="AB42" s="24"/>
       <c r="AC42" s="24"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
-      <c r="AF42" s="20"/>
+      <c r="AF42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG42" s="24"/>
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
       <c r="AJ42" s="24"/>
       <c r="AK42" s="24"/>
       <c r="AL42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AMJ42" s="0"/>
@@ -2816,7 +2869,7 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA43" s="19"/>
       <c r="AB43" s="19"/>
@@ -2824,7 +2877,7 @@
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
@@ -2928,7 +2981,7 @@
       <c r="AD44" s="22"/>
       <c r="AE44" s="21"/>
       <c r="AF44" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG44" s="21"/>
       <c r="AH44" s="21"/>
@@ -2998,7 +3051,7 @@
       </c>
       <c r="AG45" s="21"/>
       <c r="AH45" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" s="21"/>
       <c r="AJ45" s="21"/>
@@ -3134,47 +3187,47 @@
         <v>44</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R48" s="23"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U48" s="23"/>
       <c r="V48" s="23"/>
       <c r="W48" s="23"/>
       <c r="X48" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y48" s="23"/>
       <c r="Z48" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA48" s="23"/>
       <c r="AB48" s="23"/>
@@ -3186,7 +3239,7 @@
       <c r="AH48" s="23"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" s="23"/>
       <c r="AL48" s="8" t="s">
@@ -3243,37 +3296,49 @@
       <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="20"/>
+      <c r="H50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
-      <c r="N50" s="20"/>
+      <c r="N50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
-      <c r="T50" s="20"/>
+      <c r="T50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U50" s="24"/>
       <c r="V50" s="24"/>
       <c r="W50" s="24"/>
       <c r="X50" s="24"/>
       <c r="Y50" s="24"/>
-      <c r="Z50" s="20"/>
+      <c r="Z50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA50" s="24"/>
       <c r="AB50" s="24"/>
       <c r="AC50" s="24"/>
       <c r="AD50" s="24"/>
       <c r="AE50" s="24"/>
-      <c r="AF50" s="20"/>
+      <c r="AF50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG50" s="24"/>
       <c r="AH50" s="24"/>
       <c r="AI50" s="24"/>
@@ -3297,7 +3362,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -3305,7 +3370,7 @@
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
@@ -3313,7 +3378,7 @@
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
@@ -3329,7 +3394,7 @@
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
@@ -3435,7 +3500,7 @@
       </c>
       <c r="AG52" s="21"/>
       <c r="AH52" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI52" s="21" t="s">
         <v>41</v>
@@ -3605,7 +3670,7 @@
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG55" s="21"/>
       <c r="AH55" s="21"/>
@@ -3621,7 +3686,7 @@
         <v>44</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -3629,17 +3694,17 @@
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
@@ -3647,17 +3712,17 @@
       <c r="R56" s="23"/>
       <c r="S56" s="23"/>
       <c r="T56" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U56" s="23"/>
       <c r="V56" s="23"/>
       <c r="W56" s="23"/>
       <c r="X56" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y56" s="23"/>
       <c r="Z56" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA56" s="23"/>
       <c r="AB56" s="23"/>
@@ -3667,7 +3732,7 @@
       <c r="AF56" s="23"/>
       <c r="AG56" s="23"/>
       <c r="AH56" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI56" s="23"/>
       <c r="AJ56" s="23"/>
@@ -3726,37 +3791,49 @@
       <c r="A58" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
-      <c r="H58" s="20"/>
+      <c r="H58" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="20"/>
+      <c r="N58" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
-      <c r="T58" s="20"/>
+      <c r="T58" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U58" s="24"/>
       <c r="V58" s="24"/>
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
       <c r="Y58" s="24"/>
-      <c r="Z58" s="20"/>
+      <c r="Z58" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA58" s="24"/>
       <c r="AB58" s="24"/>
       <c r="AC58" s="24"/>
       <c r="AD58" s="24"/>
       <c r="AE58" s="24"/>
-      <c r="AF58" s="20"/>
+      <c r="AF58" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG58" s="24"/>
       <c r="AH58" s="24"/>
       <c r="AI58" s="24"/>
@@ -3780,7 +3857,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
@@ -3804,7 +3881,7 @@
       <c r="X59" s="19"/>
       <c r="Y59" s="19"/>
       <c r="Z59" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA59" s="19"/>
       <c r="AB59" s="19"/>
@@ -3812,7 +3889,7 @@
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
@@ -3928,7 +4005,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -4056,7 +4133,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
@@ -4080,7 +4157,7 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="21"/>
       <c r="Z63" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
@@ -4207,37 +4284,49 @@
       <c r="A66" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
-      <c r="H66" s="20"/>
+      <c r="H66" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
-      <c r="N66" s="20"/>
+      <c r="N66" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
-      <c r="T66" s="20"/>
+      <c r="T66" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U66" s="24"/>
       <c r="V66" s="24"/>
       <c r="W66" s="24"/>
       <c r="X66" s="24"/>
       <c r="Y66" s="24"/>
-      <c r="Z66" s="20"/>
+      <c r="Z66" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA66" s="24"/>
       <c r="AB66" s="24"/>
       <c r="AC66" s="24"/>
       <c r="AD66" s="24"/>
       <c r="AE66" s="24"/>
-      <c r="AF66" s="20"/>
+      <c r="AF66" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG66" s="24"/>
       <c r="AH66" s="24"/>
       <c r="AI66" s="24"/>
@@ -4285,7 +4374,7 @@
       <c r="X67" s="19"/>
       <c r="Y67" s="19"/>
       <c r="Z67" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA67" s="19"/>
       <c r="AB67" s="19"/>
@@ -4415,7 +4504,7 @@
         <v>37</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -4513,7 +4602,7 @@
       </c>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC70" s="21"/>
       <c r="AD70" s="26" t="s">
@@ -4543,7 +4632,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
@@ -4678,37 +4767,49 @@
       <c r="A74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
-      <c r="H74" s="20"/>
+      <c r="H74" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I74" s="24"/>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
-      <c r="N74" s="20"/>
+      <c r="N74" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
-      <c r="T74" s="20"/>
+      <c r="T74" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="U74" s="24"/>
       <c r="V74" s="24"/>
       <c r="W74" s="24"/>
       <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
-      <c r="Z74" s="20"/>
+      <c r="Z74" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AA74" s="24"/>
       <c r="AB74" s="24"/>
       <c r="AC74" s="24"/>
       <c r="AD74" s="24"/>
       <c r="AE74" s="24"/>
-      <c r="AF74" s="20"/>
+      <c r="AF74" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="AG74" s="24"/>
       <c r="AH74" s="24"/>
       <c r="AI74" s="24"/>
